--- a/SP_Sklad/TempLate/Debtors_extra.xlsx
+++ b/SP_Sklad/TempLate/Debtors_extra.xlsx
@@ -11,7 +11,7 @@
   </sheets>
   <definedNames>
     <definedName name="INCOMES">Лист1!#REF!</definedName>
-    <definedName name="Kagent">Лист1!$A$7:$I$8</definedName>
+    <definedName name="Kagent">Лист1!$A$7:$H$8</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$5:$6</definedName>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>sum</t>
   </si>
@@ -43,6 +43,9 @@
   <si>
     <t>Дата корегування</t>
   </si>
+  <si>
+    <t>Група</t>
+  </si>
 </sst>
 </file>
 
@@ -53,7 +56,7 @@
     <numFmt numFmtId="165" formatCode="[$-FC22]d\ mmmm\ yyyy&quot; р.&quot;;@"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yy\ h:mm;@"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -67,13 +70,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color indexed="16"/>
-      <name val="Times New Roman Cyr"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="16"/>
       <name val="Times New Roman Cyr"/>
@@ -149,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -301,53 +297,75 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="55"/>
+      </left>
       <right style="hair">
         <color indexed="55"/>
       </right>
       <top style="hair">
         <color indexed="55"/>
       </top>
-      <bottom/>
+      <bottom style="hair">
+        <color indexed="55"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -355,37 +373,31 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -756,7 +768,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:I8"/>
+  <dimension ref="B1:H8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
@@ -768,16 +780,15 @@
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.42578125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="19.85546875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="27" customHeight="1">
+    <row r="1" spans="2:8" ht="27" customHeight="1">
       <c r="B1" s="18" t="s">
         <v>4</v>
       </c>
@@ -787,19 +798,17 @@
       <c r="F1" s="18"/>
       <c r="G1" s="18"/>
       <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
     </row>
-    <row r="2" spans="2:9" ht="9" customHeight="1">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="5"/>
+    <row r="2" spans="2:8" ht="9" customHeight="1">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="2:9" ht="11.25" customHeight="1">
+    <row r="3" spans="2:8" ht="11.25" customHeight="1">
       <c r="B3" s="19" t="e">
         <f>XLRPARAMS_OnDate</f>
         <v>#NAME?</v>
@@ -810,10 +819,9 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
       <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
     </row>
-    <row r="4" spans="2:9" ht="7.5" customHeight="1"/>
-    <row r="5" spans="2:9" ht="14.25" customHeight="1">
+    <row r="4" spans="2:8" ht="7.5" customHeight="1"/>
+    <row r="5" spans="2:8" ht="14.25" customHeight="1">
       <c r="B5" s="20" t="s">
         <v>1</v>
       </c>
@@ -821,74 +829,78 @@
         <v>3</v>
       </c>
       <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="8"/>
+      <c r="E5" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="20" t="s">
+        <v>5</v>
+      </c>
       <c r="H5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:9" ht="15.75" customHeight="1">
+    <row r="6" spans="2:8" ht="15.75" customHeight="1">
       <c r="B6" s="21"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="21"/>
       <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
     </row>
-    <row r="7" spans="2:9" ht="12.75" customHeight="1">
-      <c r="B7" s="10" t="e">
+    <row r="7" spans="2:8" ht="12.75" customHeight="1">
+      <c r="B7" s="9" t="e">
         <f>KAgent_N</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="15" t="e">
+      <c r="C7" s="16" t="e">
         <f>Kagent_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="11" t="e">
+      <c r="D7" s="17"/>
+      <c r="E7" s="15" t="e">
+        <f>Kagent_GroupName</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F7" s="10" t="e">
         <f>Kagent_SALDO</f>
         <v>#NAME?</v>
       </c>
-      <c r="H7" s="12" t="e">
-        <f>G7*-1</f>
+      <c r="G7" s="11" t="e">
+        <f>F7*-1</f>
         <v>#NAME?</v>
       </c>
-      <c r="I7" s="14" t="e">
+      <c r="H7" s="13" t="e">
         <f>Kagent_LastCorectDate</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="2:9" ht="12.75" customHeight="1">
+    <row r="8" spans="2:8" ht="12.75" customHeight="1">
       <c r="B8" s="2"/>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="7" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="7"/>
+      <c r="G8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="B3:I3"/>
+  <mergeCells count="8">
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="B3:H3"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:F6"/>
-    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="C5:D6"/>
     <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/SP_Sklad/TempLate/Debtors_extra.xlsx
+++ b/SP_Sklad/TempLate/Debtors_extra.xlsx
@@ -11,17 +11,18 @@
   </sheets>
   <definedNames>
     <definedName name="INCOMES">Лист1!#REF!</definedName>
-    <definedName name="Kagent">Лист1!$A$7:$H$8</definedName>
+    <definedName name="Kagent">Лист1!$A$7:$J$8</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Лист1!$5:$6</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$J$8</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>sum</t>
   </si>
@@ -45,6 +46,9 @@
   </si>
   <si>
     <t>Група</t>
+  </si>
+  <si>
+    <t>Сума боргу по звітній даті</t>
   </si>
 </sst>
 </file>
@@ -328,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -367,6 +371,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -399,6 +406,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,11 +778,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B1:H8"/>
+  <dimension ref="B1:J8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -780,103 +789,125 @@
     <col min="1" max="1" width="1" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="29.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" customWidth="1"/>
     <col min="5" max="5" width="36.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="6" width="25.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="27" customHeight="1">
-      <c r="B1" s="18" t="s">
+    <row r="1" spans="2:10" ht="27" customHeight="1">
+      <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
-    <row r="2" spans="2:8" ht="9" customHeight="1">
+    <row r="2" spans="2:10" ht="9" customHeight="1">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="14"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="4"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="4"/>
     </row>
-    <row r="3" spans="2:8" ht="11.25" customHeight="1">
-      <c r="B3" s="19" t="e">
+    <row r="3" spans="2:10" ht="11.25" customHeight="1">
+      <c r="B3" s="20" t="e">
         <f>XLRPARAMS_OnDate</f>
         <v>#NAME?</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
     </row>
-    <row r="4" spans="2:8" ht="7.5" customHeight="1"/>
-    <row r="5" spans="2:8" ht="14.25" customHeight="1">
-      <c r="B5" s="20" t="s">
+    <row r="4" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="5" spans="2:10" ht="14.25" customHeight="1">
+      <c r="B5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="21" t="s">
         <v>7</v>
       </c>
       <c r="F5" s="7"/>
-      <c r="G5" s="20" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="J5" s="21" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" customHeight="1">
-      <c r="B6" s="21"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1">
+      <c r="B6" s="22"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
     </row>
-    <row r="7" spans="2:8" ht="12.75" customHeight="1">
+    <row r="7" spans="2:10" ht="12.75" customHeight="1">
       <c r="B7" s="9" t="e">
         <f>KAgent_N</f>
         <v>#NAME?</v>
       </c>
-      <c r="C7" s="16" t="e">
+      <c r="C7" s="17" t="e">
         <f>Kagent_NAME</f>
         <v>#NAME?</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="15" t="e">
         <f>Kagent_GroupName</f>
         <v>#NAME?</v>
       </c>
-      <c r="F7" s="10" t="e">
+      <c r="F7" s="28" t="e">
+        <f>Kagent_ReportingSaldo</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G7" s="10" t="e">
         <f>Kagent_SALDO</f>
         <v>#NAME?</v>
       </c>
-      <c r="G7" s="11" t="e">
+      <c r="H7" s="11" t="e">
         <f>F7*-1</f>
         <v>#NAME?</v>
       </c>
-      <c r="H7" s="13" t="e">
+      <c r="I7" s="11" t="e">
+        <f>G7*-1</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="J7" s="13" t="e">
         <f>Kagent_LastCorectDate</f>
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="12.75" customHeight="1">
+    <row r="8" spans="2:10" ht="12.75" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="5" t="s">
         <v>2</v>
@@ -889,23 +920,30 @@
       <c r="G8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B3:J3"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:D6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="E5:E6"/>
     <mergeCell ref="H5:H6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>